--- a/Botonera/Botonera/Pinout.xlsx
+++ b/Botonera/Botonera/Pinout.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ingenia_2023\Botonera\Botonera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\pruebas_opencv\ingenia_2023\Botonera\Botonera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230BA9BA-DCF0-4E26-AEEA-9B3DC8BB8441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BF2CB0-DFD5-4C11-A750-DE8F10914123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19260" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="1" activeTab="2" xr2:uid="{0B552AB9-E249-4DA2-BED1-A7D261E6B607}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{0B552AB9-E249-4DA2-BED1-A7D261E6B607}"/>
   </bookViews>
   <sheets>
     <sheet name="Conexiones Cables UC" sheetId="4" r:id="rId1"/>
     <sheet name="ESP32-E_BO" sheetId="3" r:id="rId2"/>
     <sheet name="Bus" sheetId="5" r:id="rId3"/>
+    <sheet name="ruteo pcb" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="178">
   <si>
     <t>PIN</t>
   </si>
@@ -483,13 +484,100 @@
   </si>
   <si>
     <t>sda1</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESP32 </t>
+  </si>
+  <si>
+    <t>botones</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>teclado 2</t>
+  </si>
+  <si>
+    <t>clk</t>
+  </si>
+  <si>
+    <t>leds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conector alimentacion </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,8 +621,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,6 +703,81 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA9D08E"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <fgColor auto="1"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <fgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightDown">
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightDown"/>
+    </fill>
+    <fill>
+      <patternFill patternType="darkTrellis"/>
+    </fill>
+    <fill>
+      <patternFill patternType="darkTrellis">
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -733,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -774,10 +959,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -790,18 +972,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -822,10 +992,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,6 +1065,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>17071</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>116897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>699188</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4ED9912-E69B-655E-F7B2-09B7E0672B6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8009412" y="116897"/>
+          <a:ext cx="5254117" cy="3035300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1340,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9064F8-B28C-4414-B5EA-7326CBD89314}">
   <dimension ref="B1:AI35"/>
   <sheetViews>
-    <sheetView topLeftCell="F5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -1371,15 +1655,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
@@ -1409,51 +1693,51 @@
       <c r="AI1" s="21"/>
     </row>
     <row r="2" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="J2" s="30" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="J2" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="M2" s="30" t="s">
+      <c r="K2" s="24"/>
+      <c r="M2" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="N2" s="30"/>
-      <c r="P2" s="30" t="s">
+      <c r="N2" s="24"/>
+      <c r="P2" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="Q2" s="30"/>
-      <c r="S2" s="30" t="s">
+      <c r="Q2" s="24"/>
+      <c r="S2" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="T2" s="30"/>
-      <c r="V2" s="30" t="s">
+      <c r="T2" s="24"/>
+      <c r="V2" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="W2" s="30"/>
-      <c r="Y2" s="24" t="s">
+      <c r="W2" s="24"/>
+      <c r="Y2" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="Z2" s="25"/>
-      <c r="AB2" s="24" t="s">
+      <c r="Z2" s="38"/>
+      <c r="AB2" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="AC2" s="25"/>
-      <c r="AE2" s="24" t="s">
+      <c r="AC2" s="38"/>
+      <c r="AE2" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AH2" s="24" t="s">
+      <c r="AF2" s="38"/>
+      <c r="AH2" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="AI2" s="25"/>
+      <c r="AI2" s="38"/>
     </row>
     <row r="3" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1744,8 +2028,8 @@
       <c r="J8" s="15"/>
       <c r="K8" s="7"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="41"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="7"/>
       <c r="O8" s="12"/>
       <c r="P8" s="16" t="s">
         <v>36</v>
@@ -1794,8 +2078,8 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="41"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="7"/>
       <c r="O9" s="12"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="7"/>
@@ -1844,8 +2128,8 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="12"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="41"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="7"/>
       <c r="O10" s="12"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="7"/>
@@ -2489,8 +2773,8 @@
         <v>102</v>
       </c>
       <c r="O23" s="12"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="41"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="7"/>
       <c r="R23" s="12"/>
       <c r="S23" s="8"/>
       <c r="T23" s="7"/>
@@ -2540,8 +2824,8 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="12"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="41"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="7"/>
       <c r="U24" s="12"/>
       <c r="V24" s="8"/>
       <c r="W24" s="7"/>
@@ -2591,8 +2875,8 @@
       <c r="S25" s="8"/>
       <c r="T25" s="7"/>
       <c r="U25" s="12"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="41"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="7"/>
       <c r="X25" s="12"/>
       <c r="Y25" s="8"/>
       <c r="Z25" s="7"/>
@@ -2607,105 +2891,105 @@
       <c r="AI25" s="7"/>
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="J26" s="26" t="s">
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="J26" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="27"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="39"/>
-      <c r="P26" s="26" t="s">
+      <c r="K26" s="26"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="34"/>
+      <c r="P26" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="Q26" s="27"/>
-      <c r="S26" s="26" t="s">
+      <c r="Q26" s="26"/>
+      <c r="S26" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="T26" s="27"/>
-      <c r="V26" s="26" t="s">
+      <c r="T26" s="26"/>
+      <c r="V26" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="W26" s="27"/>
-      <c r="Y26" s="26" t="s">
+      <c r="W26" s="26"/>
+      <c r="Y26" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="Z26" s="27"/>
-      <c r="AB26" s="26" t="s">
+      <c r="Z26" s="26"/>
+      <c r="AB26" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AC26" s="27"/>
-      <c r="AE26" s="26" t="s">
+      <c r="AC26" s="26"/>
+      <c r="AE26" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AF26" s="27"/>
-      <c r="AH26" s="26" t="s">
+      <c r="AF26" s="26"/>
+      <c r="AH26" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AI26" s="27"/>
+      <c r="AI26" s="26"/>
     </row>
     <row r="27" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="J27" s="28" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="J27" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K27" s="29"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="36"/>
-      <c r="P27" s="28" t="s">
+      <c r="K27" s="28"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="31"/>
+      <c r="P27" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Q27" s="29"/>
-      <c r="S27" s="28" t="s">
+      <c r="Q27" s="28"/>
+      <c r="S27" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="T27" s="29"/>
-      <c r="V27" s="28" t="s">
+      <c r="T27" s="28"/>
+      <c r="V27" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="W27" s="29"/>
-      <c r="Y27" s="28" t="s">
+      <c r="W27" s="28"/>
+      <c r="Y27" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Z27" s="29"/>
-      <c r="AB27" s="28" t="s">
+      <c r="Z27" s="28"/>
+      <c r="AB27" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AC27" s="29"/>
-      <c r="AE27" s="28" t="s">
+      <c r="AC27" s="28"/>
+      <c r="AE27" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AF27" s="29"/>
-      <c r="AH27" s="28" t="s">
+      <c r="AF27" s="28"/>
+      <c r="AH27" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AI27" s="29"/>
+      <c r="AI27" s="28"/>
     </row>
     <row r="28" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
       <c r="J28" s="3"/>
       <c r="K28" s="5"/>
       <c r="M28" s="3"/>
@@ -2726,44 +3010,44 @@
       <c r="AI28" s="5"/>
     </row>
     <row r="30" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
     </row>
     <row r="32" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
@@ -2785,26 +3069,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B28:H28"/>
     <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH26:AI26"/>
     <mergeCell ref="AH27:AI27"/>
@@ -2821,6 +3085,26 @@
     <mergeCell ref="V27:W27"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2831,7 +3115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA740D3A-9EB9-42B9-A304-C8076E991682}">
   <dimension ref="A2:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2945,6 +3229,699 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A18512-58EF-412F-94F5-EA00ADD3F40A}">
+  <dimension ref="B2:V26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" customWidth="1"/>
+    <col min="8" max="16" width="5.5703125" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" customWidth="1"/>
+    <col min="18" max="18" width="5.5703125" customWidth="1"/>
+    <col min="19" max="20" width="6.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C2" s="40">
+        <v>1</v>
+      </c>
+      <c r="D2" s="40">
+        <v>2</v>
+      </c>
+      <c r="E2" s="40">
+        <v>3</v>
+      </c>
+      <c r="F2" s="40">
+        <v>4</v>
+      </c>
+      <c r="G2" s="40">
+        <v>5</v>
+      </c>
+      <c r="H2" s="40">
+        <v>6</v>
+      </c>
+      <c r="I2" s="40">
+        <v>7</v>
+      </c>
+      <c r="J2" s="40">
+        <v>8</v>
+      </c>
+      <c r="K2" s="40">
+        <v>9</v>
+      </c>
+      <c r="L2" s="40">
+        <v>10</v>
+      </c>
+      <c r="M2" s="40">
+        <v>11</v>
+      </c>
+      <c r="N2" s="40">
+        <v>12</v>
+      </c>
+      <c r="O2" s="40">
+        <v>13</v>
+      </c>
+      <c r="P2" s="40">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="40">
+        <v>15</v>
+      </c>
+      <c r="R2" s="40">
+        <v>16</v>
+      </c>
+      <c r="S2" s="40">
+        <v>17</v>
+      </c>
+      <c r="T2" s="40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="46">
+        <v>2</v>
+      </c>
+      <c r="I5" s="46">
+        <v>3</v>
+      </c>
+      <c r="J5" s="46">
+        <v>4</v>
+      </c>
+      <c r="K5" s="46">
+        <v>5</v>
+      </c>
+      <c r="L5" s="46">
+        <v>6</v>
+      </c>
+      <c r="M5" s="46">
+        <v>7</v>
+      </c>
+      <c r="N5" s="46">
+        <v>8</v>
+      </c>
+      <c r="O5" s="46">
+        <v>9</v>
+      </c>
+      <c r="P5" s="46">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="75" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="42">
+        <v>2</v>
+      </c>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="73"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="42">
+        <v>3</v>
+      </c>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="74"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="68">
+        <v>15</v>
+      </c>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="74"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="66"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71">
+        <v>2</v>
+      </c>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="74"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="42">
+        <v>6</v>
+      </c>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="62"/>
+      <c r="G11" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="I11" s="57"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="43">
+        <v>12</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="62"/>
+      <c r="G12" s="56">
+        <v>16</v>
+      </c>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="49">
+        <v>14</v>
+      </c>
+      <c r="R12" s="63"/>
+      <c r="S12" s="1"/>
+      <c r="V12" s="41"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="62"/>
+      <c r="G13" s="56">
+        <v>17</v>
+      </c>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="50">
+        <v>27</v>
+      </c>
+      <c r="R13" s="63"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="2:22" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B14" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="62"/>
+      <c r="G14" s="56">
+        <v>5</v>
+      </c>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="49">
+        <v>26</v>
+      </c>
+      <c r="R14" s="63"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="62"/>
+      <c r="G15" s="56">
+        <v>18</v>
+      </c>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="49">
+        <v>25</v>
+      </c>
+      <c r="R15" s="63"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="62"/>
+      <c r="G16" s="56">
+        <v>19</v>
+      </c>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="60">
+        <v>33</v>
+      </c>
+      <c r="R16" s="64"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="55"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="60">
+        <v>32</v>
+      </c>
+      <c r="R17" s="64"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="65"/>
+      <c r="G18" s="51">
+        <v>21</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="60">
+        <v>35</v>
+      </c>
+      <c r="R18" s="64"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="65"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="51">
+        <v>22</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="42">
+        <v>18</v>
+      </c>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="53"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3166,15 +4143,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8f12b31-22a9-487c-8c58-b073bf28dd87">
@@ -3191,6 +4159,15 @@
     <MediaLengthInSeconds xmlns="e8f12b31-22a9-487c-8c58-b073bf28dd87" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3213,14 +4190,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{536B9ECE-BB7F-4BCF-B1F7-889C599B70EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{189FC5AA-7431-48C2-AE0D-9E0EC3712C78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -3235,4 +4204,12 @@
     <ds:schemaRef ds:uri="931d0228-5107-4d8c-9d78-3d021491adb3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{536B9ECE-BB7F-4BCF-B1F7-889C599B70EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>